--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-05_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-05_to_2025-01-16.xlsx
@@ -2949,7 +2949,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3011,7 +3011,11 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
           <t>0.4%</t>
@@ -3273,7 +3277,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3607,7 +3611,11 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr">
         <is>
           <t>1.7%</t>
@@ -3639,7 +3647,11 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>0.3%</t>
@@ -3849,7 +3861,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>C$0.8B</t>
+          <t>C$-1B</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -3949,7 +3961,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>$-77.5B</t>
+          <t>$-78B</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4113,7 +4125,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4149,7 +4161,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>7.65M</t>
+          <t>7.70M</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -6220,15 +6232,11 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
@@ -6248,11 +6256,15 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-05_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-05_to_2025-01-16.xlsx
@@ -5130,23 +5130,23 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2.798%</t>
+          <t>2.07%</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -5168,13 +5168,13 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2.632%</t>
+          <t>2.798%</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
@@ -5186,23 +5186,23 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC/27</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>2.632%</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
@@ -5214,37 +5214,29 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>M3 Money Supply YoYDEC/27</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>10.7%</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -5260,27 +5252,27 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -5291,24 +5283,32 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/03</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>6.97%</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
+          <t>5.8%</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -5324,19 +5324,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/03</t>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>-12.6%</t>
+          <t>6.97%</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -5352,13 +5352,13 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/03</t>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>174.9</t>
+          <t>-12.6%</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -5380,13 +5380,13 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/03</t>
+          <t>MBA Mortgage Market IndexJAN/03</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>395.1</t>
+          <t>174.9</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -5408,13 +5408,13 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/03</t>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>136.7</t>
+          <t>395.1</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -5426,7 +5426,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5436,33 +5436,25 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeDEC</t>
+          <t>MBA Purchase IndexJAN/03</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>146K</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>139K</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+          <t>136.7</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5472,13 +5464,25 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>ADP Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>139K</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
       <c r="H159" t="n">
         <v>2</v>
       </c>
@@ -5496,25 +5500,13 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/04</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>211K</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>217K</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
         <v>2</v>
       </c>
@@ -5532,23 +5524,27 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsDEC/28</t>
+          <t>Initial Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>1844K</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr"/>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>217K</t>
+        </is>
+      </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>1848K</t>
+          <t>213K</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -5564,19 +5560,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/04</t>
+          <t>Continuing Jobless ClaimsDEC/28</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>223.25K</t>
+          <t>1844K</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t>224K</t>
+          <t>1848K</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -5586,27 +5582,31 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceDEC</t>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>TRY-62.220B</t>
+          <t>223.25K</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>224K</t>
+        </is>
+      </c>
       <c r="H163" t="n">
         <v>3</v>
       </c>
@@ -5614,29 +5614,29 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+          <t>Treasury Cash BalanceDEC</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>-1.178M</t>
+          <t>TRY-62.220B</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
@@ -5652,13 +5652,13 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>7.717M</t>
+          <t>-1.178M</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -5680,19 +5680,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>0.323M</t>
+          <t>7.717M</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -5708,13 +5708,13 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>-0.142M</t>
+          <t>0.323M</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -5736,13 +5736,13 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>0.099M</t>
+          <t>-0.142M</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -5764,13 +5764,13 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/03</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>6.406M</t>
+          <t>0.099M</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -5792,13 +5792,13 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/03</t>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>-0.959M</t>
+          <t>6.406M</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -5820,13 +5820,13 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>-0.416M</t>
+          <t>-0.959M</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -5848,13 +5848,13 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>-0.416M</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -5866,7 +5866,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5876,13 +5876,13 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>4.195%</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -5894,23 +5894,23 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>3.029%</t>
+          <t>4.195%</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -5927,18 +5927,18 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>-116Bcf</t>
+          <t>3.029%</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -5950,7 +5950,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5960,13 +5960,13 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>4.535%</t>
+          <t>-116Bcf</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -5978,31 +5978,27 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>4.535%</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
         <v>3</v>
       </c>
@@ -6015,26 +6011,34 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>-2%</t>
+        </is>
+      </c>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6044,59 +6048,47 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeNOV</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>$19.24B</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>$12B</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>$14.0B</t>
-        </is>
-      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYNOV</t>
+          <t>Consumer Credit ChangeNOV</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>$19.24B</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>$12B</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>$14.0B</t>
         </is>
       </c>
       <c r="H180" t="n">
@@ -6116,19 +6108,23 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Overtime Pay YoYNOV</t>
+          <t>Average Cash Earnings YoYNOV</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H181" t="n">
@@ -6138,7 +6134,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6148,17 +6144,21 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Overtime Pay YoYNOV</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>¥-919.2B</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H182" t="n">
         <v>3</v>
       </c>
@@ -6200,11 +6200,15 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
@@ -6242,37 +6246,25 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>A$5.953B</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>A$5.900B</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>A$6B</t>
-        </is>
-      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -6288,27 +6280,27 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>A$5.953B</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>A$5.900B</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>A$6B</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -6324,19 +6316,27 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Exports MoMNOV</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -6352,13 +6352,13 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Imports MoMNOV</t>
+          <t>Exports MoMNOV</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -6370,31 +6370,27 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Imports MoMNOV</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>125.9</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+      <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
         <v>3</v>
       </c>
@@ -6402,27 +6398,31 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>30-Year JGB Auction</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>2.287%</t>
+          <t>125.9</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
       <c r="H191" t="n">
         <v>3</v>
       </c>
@@ -6440,13 +6440,13 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>0.2952%</t>
+          <t>2.287%</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -6456,29 +6456,29 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr"/>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>10:35 PM</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>0.2952%</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>51.8</t>
-        </is>
-      </c>
+      <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
         <v>3</v>
       </c>
@@ -6487,22 +6487,26 @@
       <c r="A194" t="inlineStr"/>
       <c r="B194" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMDEC</t>
+          <t>ABSA Manufacturing PMIDEC</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>51.8</t>
+        </is>
+      </c>
       <c r="H194" t="n">
         <v>3</v>
       </c>
@@ -6516,13 +6520,13 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYDEC</t>
+          <t>Used Car Prices MoMDEC</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -6532,54 +6536,42 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Thursday January 09 2025</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr"/>
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYDEC</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Balance of TradeNOV</t>
-        </is>
-      </c>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>€13.4B</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>€14.8B</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>€15.0B</t>
-        </is>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6594,23 +6586,27 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Exports MoMNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>€13.4B</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr"/>
+          <t>€14.8B</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>€15.0B</t>
+        </is>
+      </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -6626,25 +6622,21 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Exports MoMNOV</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
         <v>2</v>
       </c>
@@ -6662,48 +6654,56 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Imports MoMNOV</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>15-Year Index-Linked Obligacion Auction</t>
+          <t>Imports MoMNOV</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>1.297%</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
         <v>3</v>
@@ -6722,13 +6722,13 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>20-Year Obligacion Auction</t>
+          <t>15-Year Index-Linked Obligacion Auction</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>3.527%</t>
+          <t>1.297%</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -6750,13 +6750,13 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>3-Year Bonos Auction</t>
+          <t>20-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>2.277%</t>
+          <t>3.527%</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -6778,13 +6778,13 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>7-Year Obligacion Auction</t>
+          <t>3-Year Bonos Auction</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>2.692%</t>
+          <t>2.277%</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -6796,37 +6796,29 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>7-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>2.692%</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
@@ -6842,19 +6834,23 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr"/>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H206" t="n">
@@ -6869,24 +6865,28 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>10-Year OAT Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>3.24%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -6902,13 +6902,13 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>12-Year OAT Auction</t>
+          <t>10-Year OAT Auction</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>3.04%</t>
+          <t>3.24%</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -6930,13 +6930,13 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>20-Year OAT Auction</t>
+          <t>12-Year OAT Auction</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>3.55%</t>
+          <t>3.04%</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -6958,13 +6958,13 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>30-Year OAT Auction</t>
+          <t>20-Year OAT Auction</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>3.78%</t>
+          <t>3.55%</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -6976,23 +6976,23 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>12-Month BOT Auction</t>
+          <t>30-Year OAT Auction</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>2.411%</t>
+          <t>3.78%</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -7004,31 +7004,27 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>12-Month BOT Auction</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.411%</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G212" t="inlineStr"/>
       <c r="H212" t="n">
         <v>3</v>
       </c>
@@ -7046,19 +7042,19 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H213" t="n">
@@ -7068,27 +7064,31 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>$90.74B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
+      </c>
       <c r="H214" t="n">
         <v>3</v>
       </c>
@@ -7096,37 +7096,29 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Foreign Exchange ReservesJAN/03</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>$90.74B</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -7142,27 +7134,27 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -7173,32 +7165,32 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>0.53%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -7214,23 +7206,23 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>4.55%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>4.35%</t>
+          <t>0.50%</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>0.53%</t>
         </is>
       </c>
       <c r="H218" t="n">
@@ -7250,27 +7242,27 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>4.55%</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>4.35%</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -7286,23 +7278,23 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>3.58%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>3.56%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>3.54%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H220" t="n">
@@ -7312,29 +7304,33 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Challenger Job CutsDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>57.727K</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr"/>
+          <t>3.58%</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3.56%</t>
+        </is>
+      </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>65K</t>
+          <t>3.54%</t>
         </is>
       </c>
       <c r="H221" t="n">
@@ -7344,7 +7340,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7354,47 +7350,47 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>Challenger Job CutsDEC</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>57.727K</t>
+        </is>
+      </c>
       <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>09:10 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Auto Exports YoYDEC</t>
+          <t>Fed Harker Speech</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G223" t="inlineStr"/>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -7410,19 +7406,19 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>Auto Exports YoYDEC</t>
         </is>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr">
         <is>
-          <t>16.0%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="H224" t="n">
@@ -7432,7 +7428,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:10 AM</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -7442,15 +7438,23 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Monetary Policy Meeting Minutes</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
       <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>16.0%</t>
+        </is>
+      </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -7461,38 +7465,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMNOV</t>
+          <t>Monetary Policy Meeting Minutes</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -7502,17 +7494,25 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+          <t>Wholesale Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>$25 million</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr"/>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="H227" t="n">
         <v>3</v>
       </c>
@@ -7520,7 +7520,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -7530,16 +7530,16 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>4.265%</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="n">
         <v>3</v>
@@ -7558,13 +7558,13 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>4.265%</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -7576,23 +7576,23 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>10-Year Bond Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>3.142%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -7609,18 +7609,18 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/09</t>
+          <t>10-Year Bond Auction</t>
         </is>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>6.13%</t>
+          <t>3.142%</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
@@ -7642,13 +7642,13 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/09</t>
+          <t>15-Year Mortgage RateJAN/09</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>6.91%</t>
+          <t>6.13%</t>
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
@@ -7660,7 +7660,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>12:40 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -7670,21 +7670,25 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>30-Year Mortgage RateJAN/09</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>6.91%</t>
+        </is>
+      </c>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>12:40 PM</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -7694,7 +7698,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Fed Schmid Speech</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
@@ -7708,7 +7712,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>01:35 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7718,7 +7722,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Fed Schmid Speech</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
@@ -7732,7 +7736,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>01:35 PM</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7742,55 +7746,43 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/08</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>$6.85T</t>
-        </is>
-      </c>
+      <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Household Spending MoMNOV</t>
+          <t>Fed Balance SheetJAN/08</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -7806,23 +7798,23 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Household Spending YoYNOV</t>
+          <t>Household Spending MoMNOV</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="H238" t="n">
@@ -7832,49 +7824,61 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Household Spending YoYNOV</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
+          <t>-1.3%</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
-      <c r="E240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="n">
@@ -7882,29 +7886,25 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr"/>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>10:35 PM</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>48.585K</t>
-        </is>
-      </c>
+      <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>45.0K</t>
-        </is>
-      </c>
+      <c r="G241" t="inlineStr"/>
       <c r="H241" t="n">
         <v>3</v>
       </c>
@@ -7913,62 +7913,52 @@
       <c r="A242" t="inlineStr"/>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Car Sales YoYDEC</t>
+          <t>Total New Vehicle SalesDEC</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>-11.9%</t>
+          <t>48.585K</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>45.0K</t>
+        </is>
+      </c>
       <c r="H242" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A243" t="inlineStr"/>
       <c r="B243" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Car Sales YoYDEC</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>-11.9%</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-05_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-05_to_2025-01-16.xlsx
@@ -6176,11 +6176,15 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
@@ -6200,15 +6204,11 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
@@ -6228,15 +6228,11 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
@@ -6256,11 +6252,15 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
